--- a/opdrachten/opdracht_h/opdracht_h_teamonderdeel.xlsx
+++ b/opdrachten/opdracht_h/opdracht_h_teamonderdeel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\School\Project 4\Git\Project4Bankalicious\opdrachten\opdracht_h\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC2CB2C5-AD10-4A95-A0B5-7A0C7FCB30FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F5AAE6-7203-4866-A1B4-2B346F67CDAD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{985EA6E9-3A71-427B-8D25-925CD9CE212C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -78,13 +78,49 @@
     <t>Taken optijd overdragen</t>
   </si>
   <si>
-    <t>:D</t>
-  </si>
-  <si>
     <t>Er staan afspraken hierover in het samenwerkingscontract</t>
   </si>
   <si>
     <t>R3</t>
+  </si>
+  <si>
+    <t>Er crasht een computer van een groepslid</t>
+  </si>
+  <si>
+    <t>Git gebruiken</t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
+  <si>
+    <t>Alle bestanden staan op Git men moet dit alleen wel goed gebruiken</t>
+  </si>
+  <si>
+    <t>: |</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Git is HELEMAAL verkloot</t>
+  </si>
+  <si>
+    <t>Git leren</t>
+  </si>
+  <si>
+    <t>Men is bezig met Git proberen te snappen</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Groepslid komt meerdere keren niet.</t>
+  </si>
+  <si>
+    <t>Taart meenemen voor elke keer dat je afwezig bent</t>
+  </si>
+  <si>
+    <t>Nieuw, de bestaande maatregel is niet heel sterk</t>
   </si>
 </sst>
 </file>
@@ -107,15 +143,14 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -144,16 +179,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -163,25 +198,25 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,27 +536,28 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="36.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="6" max="6" width="21.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.140625" style="7"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -533,111 +569,163 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6">
+        <v>43229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="6">
-        <v>43215</v>
+      <c r="H4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6">
+        <v>43236</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+    <row r="5" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5">
-        <v>43229</v>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="6">
+        <v>43236</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+    <row r="6" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="6">
+        <v>43236</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
